--- a/biology/Médecine/Carpe_(anatomie)/Carpe_(anatomie).xlsx
+++ b/biology/Médecine/Carpe_(anatomie)/Carpe_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le carpe chez les tétrapodes est le groupe d'os du poignet entre le radius, l'ulna et le métacarpe. Il désigne plus particulièrement la région du corps humain qui correspond au poignet. Il articule l'avant-bras avec le métacarpe.
 </t>
@@ -511,7 +523,9 @@
           <t>Carpe chez l'humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est constitué de sept os courts et un os sésamoïde, répartis en deux rangées :
 Première rangée :
@@ -556,7 +570,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les traumatismes de la main ou du poignet peuvent donner toutes sortes d'entorses, fractures ou luxations de ces os, pouvant causer des douleurs plus ou moins aiguës. Le diagnostic est souvent difficile, et le traitement nécessite souvent le recours à une chirurgie spécialisée.
 La fracture du scaphoïde est une fracture pénible car ce dernier n'est irrigué que par une seule petite artère, ce qui ralentit sa guérison. Cette fracture survient lorsque la personne chute et tombe sur la paume de la main. La douleur n'est pas intense, elle ressemble à celle d'une simple entorse. Un hématome peut apparaitre sur le dos de la main. La douleur devient intense lors d'une prise d'appuis ou lorsque l'on touche au niveau de la tabatière anatomique. Selon le type de fracture, il est nécessaire d'immobiliser le poignet pendant trois mois pour une bonne guérison, ou bien d'utiliser une technique de vissage permettant de stabiliser la fracture. Il existe plusieurs complications comme la pseudarthrose, le cal vicieux ou bien l'ostéonécrose.
